--- a/public/data/lime/lime_table_malawi.xlsx
+++ b/public/data/lime/lime_table_malawi.xlsx
@@ -2152,7 +2152,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.7</v>
+        <v>0.22</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -2161,7 +2161,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -2275,10 +2275,10 @@
         <v>95</v>
       </c>
       <c r="D8" t="n">
-        <v>1.63</v>
+        <v>1.22</v>
       </c>
       <c r="E8" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -2293,16 +2293,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.97</v>
+        <v>0.52</v>
       </c>
       <c r="K8" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -2528,7 +2528,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.68</v>
+        <v>0.13</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -2669,7 +2669,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0.81</v>
+        <v>0.16</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -2678,7 +2678,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -2913,7 +2913,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -2951,19 +2951,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>3.81</v>
+        <v>0.71</v>
       </c>
       <c r="K22" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -3054,7 +3054,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -3092,7 +3092,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -3101,7 +3101,7 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -3280,10 +3280,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>1.13</v>
+        <v>0.46</v>
       </c>
       <c r="K29" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -3450,16 +3450,16 @@
         <v>122</v>
       </c>
       <c r="D33" t="n">
-        <v>0.98</v>
+        <v>0.72</v>
       </c>
       <c r="E33" t="n">
-        <v>0.34</v>
+        <v>0.15</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="G33" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3468,16 +3468,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.76</v>
+        <v>0.42</v>
       </c>
       <c r="K33" t="n">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -3515,16 +3515,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>1.18</v>
+        <v>0.61</v>
       </c>
       <c r="K34" t="n">
-        <v>0.2</v>
+        <v>0.04</v>
       </c>
       <c r="L34" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -3544,34 +3544,34 @@
         <v>124</v>
       </c>
       <c r="D35" t="n">
-        <v>1.16</v>
+        <v>0.73</v>
       </c>
       <c r="E35" t="n">
-        <v>0.25</v>
+        <v>0.06</v>
       </c>
       <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="K35" t="n">
         <v>0.01</v>
       </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.11</v>
-      </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -3591,16 +3591,16 @@
         <v>125</v>
       </c>
       <c r="D36" t="n">
-        <v>1.56</v>
+        <v>1.19</v>
       </c>
       <c r="E36" t="n">
-        <v>0.63</v>
+        <v>0.29</v>
       </c>
       <c r="F36" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3609,16 +3609,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>1.35</v>
+        <v>0.86</v>
       </c>
       <c r="K36" t="n">
-        <v>0.36</v>
+        <v>0.09</v>
       </c>
       <c r="L36" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -3638,16 +3638,16 @@
         <v>126</v>
       </c>
       <c r="D37" t="n">
-        <v>0.87</v>
+        <v>0.39</v>
       </c>
       <c r="E37" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3656,16 +3656,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>1.08</v>
+        <v>0.6</v>
       </c>
       <c r="K37" t="n">
-        <v>0.13</v>
+        <v>0.01</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -3703,16 +3703,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0.68</v>
+        <v>0.33</v>
       </c>
       <c r="K38" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -3732,7 +3732,7 @@
         <v>129</v>
       </c>
       <c r="D39" t="n">
-        <v>1.43</v>
+        <v>0.72</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3741,7 +3741,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3759,7 +3759,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -3891,16 +3891,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.94</v>
+        <v>0.59</v>
       </c>
       <c r="K42" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -3938,7 +3938,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>1.02</v>
+        <v>0.28</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3947,7 +3947,7 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -3994,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -4032,16 +4032,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>1.35</v>
+        <v>0.72</v>
       </c>
       <c r="K45" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -4061,16 +4061,16 @@
         <v>136</v>
       </c>
       <c r="D46" t="n">
-        <v>1.64</v>
+        <v>0.97</v>
       </c>
       <c r="E46" t="n">
-        <v>0.24</v>
+        <v>0.06</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4079,16 +4079,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>1.55</v>
+        <v>0.87</v>
       </c>
       <c r="K46" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -4126,16 +4126,16 @@
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>1.25</v>
+        <v>0.92</v>
       </c>
       <c r="K47" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="L47" t="n">
-        <v>0.19</v>
+        <v>0.06</v>
       </c>
       <c r="M47" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N47" t="n">
         <v>0</v>
@@ -4399,7 +4399,7 @@
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4408,7 +4408,7 @@
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>1</v>
+        <v>0.13</v>
       </c>
       <c r="K53" t="n">
         <v>0</v>
@@ -4502,7 +4502,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>0.58</v>
+        <v>0.07</v>
       </c>
       <c r="K55" t="n">
         <v>0</v>
@@ -4596,16 +4596,16 @@
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>0.96</v>
+        <v>0.35</v>
       </c>
       <c r="K57" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="L57" t="n">
         <v>0</v>
       </c>
       <c r="M57" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N57" t="n">
         <v>0</v>
@@ -4652,7 +4652,7 @@
         <v>0</v>
       </c>
       <c r="M58" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N58" t="n">
         <v>0</v>
@@ -4672,13 +4672,13 @@
         <v>130</v>
       </c>
       <c r="D59" t="n">
-        <v>3.03</v>
+        <v>1.73</v>
       </c>
       <c r="E59" t="n">
-        <v>1.65</v>
+        <v>0.08</v>
       </c>
       <c r="F59" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
@@ -4690,16 +4690,16 @@
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>2.52</v>
+        <v>1.46</v>
       </c>
       <c r="K59" t="n">
-        <v>1.2</v>
+        <v>0.09</v>
       </c>
       <c r="L59" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="M59" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N59" t="n">
         <v>0</v>
@@ -4719,16 +4719,16 @@
         <v>151</v>
       </c>
       <c r="D60" t="n">
-        <v>1.7</v>
+        <v>1.39</v>
       </c>
       <c r="E60" t="n">
-        <v>0.72</v>
+        <v>0.34</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2</v>
+        <v>0.04</v>
       </c>
       <c r="G60" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4737,16 +4737,16 @@
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>1.07</v>
+        <v>0.71</v>
       </c>
       <c r="K60" t="n">
-        <v>0.21</v>
+        <v>0.02</v>
       </c>
       <c r="L60" t="n">
         <v>0</v>
       </c>
       <c r="M60" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="N60" t="n">
         <v>0</v>
@@ -4766,13 +4766,13 @@
         <v>152</v>
       </c>
       <c r="D61" t="n">
-        <v>2.51</v>
+        <v>1.94</v>
       </c>
       <c r="E61" t="n">
-        <v>1.19</v>
+        <v>0.29</v>
       </c>
       <c r="F61" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="G61" t="n">
         <v>0</v>
@@ -4784,16 +4784,16 @@
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>2.18</v>
+        <v>1.52</v>
       </c>
       <c r="K61" t="n">
-        <v>0.72</v>
+        <v>0.13</v>
       </c>
       <c r="L61" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="M61" t="n">
-        <v>0.51</v>
+        <v>0</v>
       </c>
       <c r="N61" t="n">
         <v>0</v>
@@ -4831,16 +4831,16 @@
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>1.12</v>
+        <v>0.43</v>
       </c>
       <c r="K62" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="L62" t="n">
         <v>0</v>
       </c>
       <c r="M62" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N62" t="n">
         <v>0</v>
@@ -4860,16 +4860,16 @@
         <v>154</v>
       </c>
       <c r="D63" t="n">
-        <v>1.61</v>
+        <v>1.04</v>
       </c>
       <c r="E63" t="n">
-        <v>0.47</v>
+        <v>0.11</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4878,16 +4878,16 @@
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>1.51</v>
+        <v>0.85</v>
       </c>
       <c r="K63" t="n">
-        <v>0.35</v>
+        <v>0.02</v>
       </c>
       <c r="L63" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="M63" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="N63" t="n">
         <v>0</v>
@@ -4907,10 +4907,10 @@
         <v>155</v>
       </c>
       <c r="D64" t="n">
-        <v>2.54</v>
+        <v>2.1</v>
       </c>
       <c r="E64" t="n">
-        <v>1.3</v>
+        <v>0.35</v>
       </c>
       <c r="F64" t="n">
         <v>0</v>
@@ -4925,16 +4925,16 @@
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="K64" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="L64" t="n">
         <v>0</v>
       </c>
       <c r="M64" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N64" t="n">
         <v>0</v>
@@ -4954,7 +4954,7 @@
         <v>156</v>
       </c>
       <c r="D65" t="n">
-        <v>0.76</v>
+        <v>0.43</v>
       </c>
       <c r="E65" t="n">
         <v>0</v>
@@ -4963,7 +4963,7 @@
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4972,16 +4972,16 @@
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>1.08</v>
+        <v>0.7</v>
       </c>
       <c r="K65" t="n">
-        <v>0.25</v>
+        <v>0.02</v>
       </c>
       <c r="L65" t="n">
         <v>0</v>
       </c>
       <c r="M65" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N65" t="n">
         <v>0</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>0.52</v>
+        <v>0.2</v>
       </c>
       <c r="K67" t="n">
         <v>0</v>
@@ -5075,7 +5075,7 @@
         <v>0</v>
       </c>
       <c r="M67" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N67" t="n">
         <v>0</v>
@@ -5160,13 +5160,13 @@
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>1.19</v>
+        <v>0.82</v>
       </c>
       <c r="K69" t="n">
-        <v>0.37</v>
+        <v>0.15</v>
       </c>
       <c r="L69" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="M69" t="n">
         <v>0</v>
@@ -5207,7 +5207,7 @@
         <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>0.64</v>
+        <v>0.24</v>
       </c>
       <c r="K70" t="n">
         <v>0</v>
@@ -5216,7 +5216,7 @@
         <v>0</v>
       </c>
       <c r="M70" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N70" t="n">
         <v>0</v>
@@ -5489,16 +5489,16 @@
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>1.23</v>
+        <v>0.89</v>
       </c>
       <c r="K76" t="n">
-        <v>0.37</v>
+        <v>0.12</v>
       </c>
       <c r="L76" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="M76" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N76" t="n">
         <v>0</v>
@@ -5583,10 +5583,10 @@
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>0.72</v>
+        <v>0.35</v>
       </c>
       <c r="K78" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="L78" t="n">
         <v>0</v>
@@ -5677,7 +5677,7 @@
         <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>1.07</v>
+        <v>0.08</v>
       </c>
       <c r="K80" t="n">
         <v>0</v>
@@ -5771,10 +5771,10 @@
         <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>2.4</v>
+        <v>0.98</v>
       </c>
       <c r="K82" t="n">
-        <v>0.61</v>
+        <v>0</v>
       </c>
       <c r="L82" t="n">
         <v>0</v>
@@ -5865,7 +5865,7 @@
         <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>0.69</v>
+        <v>0.16</v>
       </c>
       <c r="K84" t="n">
         <v>0</v>
@@ -6129,13 +6129,13 @@
         <v>183</v>
       </c>
       <c r="D90" t="n">
-        <v>3.47</v>
+        <v>3.25</v>
       </c>
       <c r="E90" t="n">
-        <v>2.89</v>
+        <v>2.4</v>
       </c>
       <c r="F90" t="n">
-        <v>2.21</v>
+        <v>1.42</v>
       </c>
       <c r="G90" t="n">
         <v>0</v>
@@ -6147,16 +6147,16 @@
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>1.6</v>
+        <v>1.32</v>
       </c>
       <c r="K90" t="n">
-        <v>0.83</v>
+        <v>0.44</v>
       </c>
       <c r="L90" t="n">
-        <v>0.27</v>
+        <v>0.06</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N90" t="n">
         <v>0</v>
@@ -6279,7 +6279,7 @@
         <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6288,7 +6288,7 @@
         <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>0.63</v>
+        <v>0.29</v>
       </c>
       <c r="K93" t="n">
         <v>0</v>
@@ -6420,7 +6420,7 @@
         <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6429,16 +6429,16 @@
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>0.93</v>
+        <v>0.43</v>
       </c>
       <c r="K96" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="L96" t="n">
         <v>0</v>
       </c>
       <c r="M96" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N96" t="n">
         <v>0</v>
@@ -6608,10 +6608,10 @@
         <v>0</v>
       </c>
       <c r="G100" t="n">
-        <v>5.91</v>
+        <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -6626,7 +6626,7 @@
         <v>0</v>
       </c>
       <c r="M100" t="n">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="N100" t="n">
         <v>0</v>
@@ -6673,7 +6673,7 @@
         <v>0</v>
       </c>
       <c r="M101" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N101" t="n">
         <v>0</v>
@@ -6758,16 +6758,16 @@
         <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>1.19</v>
+        <v>0.46</v>
       </c>
       <c r="K103" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L103" t="n">
         <v>0</v>
       </c>
       <c r="M103" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N103" t="n">
         <v>0</v>
@@ -6796,10 +6796,10 @@
         <v>0</v>
       </c>
       <c r="G104" t="n">
-        <v>4.3</v>
+        <v>0</v>
       </c>
       <c r="H104" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -6814,7 +6814,7 @@
         <v>0</v>
       </c>
       <c r="M104" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="N104" t="n">
         <v>0</v>
@@ -6899,19 +6899,19 @@
         <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>2.47</v>
+        <v>0.34</v>
       </c>
       <c r="K106" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="L106" t="n">
         <v>0</v>
       </c>
       <c r="M106" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N106" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="O106" t="n">
         <v>0</v>
@@ -6946,19 +6946,19 @@
         <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>2.1</v>
+        <v>0.67</v>
       </c>
       <c r="K107" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="L107" t="n">
         <v>0</v>
       </c>
       <c r="M107" t="n">
-        <v>0.87</v>
+        <v>0</v>
       </c>
       <c r="N107" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="O107" t="n">
         <v>0</v>
@@ -7002,7 +7002,7 @@
         <v>0</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N108" t="n">
         <v>0</v>
@@ -7040,16 +7040,16 @@
         <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>1.6</v>
+        <v>0.86</v>
       </c>
       <c r="K109" t="n">
-        <v>0.16</v>
+        <v>0.01</v>
       </c>
       <c r="L109" t="n">
         <v>0</v>
       </c>
       <c r="M109" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="N109" t="n">
         <v>0</v>
@@ -7087,19 +7087,19 @@
         <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>2.66</v>
+        <v>0.33</v>
       </c>
       <c r="K110" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="L110" t="n">
         <v>0</v>
       </c>
       <c r="M110" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="N110" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="O110" t="n">
         <v>0</v>
@@ -7163,7 +7163,7 @@
         <v>206</v>
       </c>
       <c r="D112" t="n">
-        <v>0.63</v>
+        <v>0.23</v>
       </c>
       <c r="E112" t="n">
         <v>0</v>
@@ -7172,7 +7172,7 @@
         <v>0</v>
       </c>
       <c r="G112" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7181,10 +7181,10 @@
         <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>0.85</v>
+        <v>0.39</v>
       </c>
       <c r="K112" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="L112" t="n">
         <v>0</v>
@@ -7228,16 +7228,16 @@
         <v>0</v>
       </c>
       <c r="J113" t="n">
-        <v>2.16</v>
+        <v>0.53</v>
       </c>
       <c r="K113" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="L113" t="n">
         <v>0</v>
       </c>
       <c r="M113" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="N113" t="n">
         <v>0</v>
@@ -7275,16 +7275,16 @@
         <v>0</v>
       </c>
       <c r="J114" t="n">
-        <v>6.97</v>
+        <v>2.85</v>
       </c>
       <c r="K114" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="L114" t="n">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="M114" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="N114" t="n">
         <v>0</v>
@@ -7369,7 +7369,7 @@
         <v>0</v>
       </c>
       <c r="J116" t="n">
-        <v>1.92</v>
+        <v>0.02</v>
       </c>
       <c r="K116" t="n">
         <v>0</v>
@@ -7398,16 +7398,16 @@
         <v>211</v>
       </c>
       <c r="D117" t="n">
-        <v>2.02</v>
+        <v>1.64</v>
       </c>
       <c r="E117" t="n">
-        <v>1.17</v>
+        <v>0.49</v>
       </c>
       <c r="F117" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="G117" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7416,16 +7416,16 @@
         <v>0</v>
       </c>
       <c r="J117" t="n">
-        <v>2.05</v>
+        <v>0.85</v>
       </c>
       <c r="K117" t="n">
-        <v>0.63</v>
+        <v>0</v>
       </c>
       <c r="L117" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M117" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="N117" t="n">
         <v>0</v>
@@ -7445,16 +7445,16 @@
         <v>212</v>
       </c>
       <c r="D118" t="n">
-        <v>2.11</v>
+        <v>1.77</v>
       </c>
       <c r="E118" t="n">
-        <v>1.21</v>
+        <v>0.68</v>
       </c>
       <c r="F118" t="n">
-        <v>0.45</v>
+        <v>0.05</v>
       </c>
       <c r="G118" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7463,16 +7463,16 @@
         <v>0</v>
       </c>
       <c r="J118" t="n">
-        <v>1.64</v>
+        <v>1.19</v>
       </c>
       <c r="K118" t="n">
-        <v>0.52</v>
+        <v>0.18</v>
       </c>
       <c r="L118" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="M118" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N118" t="n">
         <v>0</v>
@@ -7492,16 +7492,16 @@
         <v>213</v>
       </c>
       <c r="D119" t="n">
-        <v>1.46</v>
+        <v>1.04</v>
       </c>
       <c r="E119" t="n">
-        <v>0.51</v>
+        <v>0.06</v>
       </c>
       <c r="F119" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="G119" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7510,16 +7510,16 @@
         <v>0</v>
       </c>
       <c r="J119" t="n">
-        <v>1</v>
+        <v>0.52</v>
       </c>
       <c r="K119" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L119" t="n">
         <v>0</v>
       </c>
       <c r="M119" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="N119" t="n">
         <v>0</v>
@@ -7557,16 +7557,16 @@
         <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>1.27</v>
+        <v>0.8</v>
       </c>
       <c r="K120" t="n">
-        <v>0.31</v>
+        <v>0.05</v>
       </c>
       <c r="L120" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="M120" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N120" t="n">
         <v>0</v>
@@ -7586,16 +7586,16 @@
         <v>215</v>
       </c>
       <c r="D121" t="n">
-        <v>1.23</v>
+        <v>0.81</v>
       </c>
       <c r="E121" t="n">
-        <v>0.34</v>
+        <v>0.07</v>
       </c>
       <c r="F121" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="G121" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7604,16 +7604,16 @@
         <v>0</v>
       </c>
       <c r="J121" t="n">
-        <v>1.18</v>
+        <v>0.71</v>
       </c>
       <c r="K121" t="n">
-        <v>0.28</v>
+        <v>0.06</v>
       </c>
       <c r="L121" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="M121" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N121" t="n">
         <v>0</v>
@@ -7633,16 +7633,16 @@
         <v>216</v>
       </c>
       <c r="D122" t="n">
-        <v>1.15</v>
+        <v>0.75</v>
       </c>
       <c r="E122" t="n">
-        <v>0.34</v>
+        <v>0.02</v>
       </c>
       <c r="F122" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G122" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7651,10 +7651,10 @@
         <v>0</v>
       </c>
       <c r="J122" t="n">
-        <v>0.77</v>
+        <v>0.36</v>
       </c>
       <c r="K122" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="L122" t="n">
         <v>0</v>
@@ -7698,16 +7698,16 @@
         <v>0</v>
       </c>
       <c r="J123" t="n">
-        <v>1.06</v>
+        <v>0.37</v>
       </c>
       <c r="K123" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="L123" t="n">
         <v>0</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="N123" t="n">
         <v>0</v>
@@ -7745,16 +7745,16 @@
         <v>0</v>
       </c>
       <c r="J124" t="n">
-        <v>1.32</v>
+        <v>0.72</v>
       </c>
       <c r="K124" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="L124" t="n">
         <v>0</v>
       </c>
       <c r="M124" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N124" t="n">
         <v>0</v>
@@ -7792,16 +7792,16 @@
         <v>0</v>
       </c>
       <c r="J125" t="n">
-        <v>1.24</v>
+        <v>0.72</v>
       </c>
       <c r="K125" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="L125" t="n">
         <v>0</v>
       </c>
       <c r="M125" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N125" t="n">
         <v>0</v>
@@ -7839,10 +7839,10 @@
         <v>0</v>
       </c>
       <c r="J126" t="n">
-        <v>0.77</v>
+        <v>0.51</v>
       </c>
       <c r="K126" t="n">
-        <v>0.2</v>
+        <v>0.03</v>
       </c>
       <c r="L126" t="n">
         <v>0</v>
@@ -7886,7 +7886,7 @@
         <v>0</v>
       </c>
       <c r="J127" t="n">
-        <v>0.5</v>
+        <v>0.09</v>
       </c>
       <c r="K127" t="n">
         <v>0</v>
@@ -7933,10 +7933,10 @@
         <v>0</v>
       </c>
       <c r="J128" t="n">
-        <v>0.61</v>
+        <v>0.23</v>
       </c>
       <c r="K128" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="L128" t="n">
         <v>0</v>
@@ -7962,13 +7962,13 @@
         <v>224</v>
       </c>
       <c r="D129" t="n">
-        <v>2.87</v>
+        <v>2.67</v>
       </c>
       <c r="E129" t="n">
-        <v>2.21</v>
+        <v>1.8</v>
       </c>
       <c r="F129" t="n">
-        <v>1.45</v>
+        <v>0.77</v>
       </c>
       <c r="G129" t="n">
         <v>0</v>
@@ -7980,13 +7980,13 @@
         <v>0</v>
       </c>
       <c r="J129" t="n">
-        <v>1.67</v>
+        <v>1.42</v>
       </c>
       <c r="K129" t="n">
-        <v>0.88</v>
+        <v>0.52</v>
       </c>
       <c r="L129" t="n">
-        <v>0.33</v>
+        <v>0.09</v>
       </c>
       <c r="M129" t="n">
         <v>0</v>
@@ -8027,16 +8027,16 @@
         <v>0</v>
       </c>
       <c r="J130" t="n">
-        <v>0.96</v>
+        <v>0.64</v>
       </c>
       <c r="K130" t="n">
-        <v>0.15</v>
+        <v>0.02</v>
       </c>
       <c r="L130" t="n">
         <v>0</v>
       </c>
       <c r="M130" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N130" t="n">
         <v>0</v>
@@ -8074,16 +8074,16 @@
         <v>0</v>
       </c>
       <c r="J131" t="n">
-        <v>1.1</v>
+        <v>0.86</v>
       </c>
       <c r="K131" t="n">
-        <v>0.49</v>
+        <v>0.26</v>
       </c>
       <c r="L131" t="n">
-        <v>0.12</v>
+        <v>0.01</v>
       </c>
       <c r="M131" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N131" t="n">
         <v>0</v>
@@ -8103,13 +8103,13 @@
         <v>227</v>
       </c>
       <c r="D132" t="n">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="E132" t="n">
-        <v>2.09</v>
+        <v>1.66</v>
       </c>
       <c r="F132" t="n">
-        <v>1.32</v>
+        <v>0.62</v>
       </c>
       <c r="G132" t="n">
         <v>0</v>
@@ -8121,13 +8121,13 @@
         <v>0</v>
       </c>
       <c r="J132" t="n">
-        <v>1.49</v>
+        <v>1.16</v>
       </c>
       <c r="K132" t="n">
-        <v>0.71</v>
+        <v>0.38</v>
       </c>
       <c r="L132" t="n">
-        <v>0.25</v>
+        <v>0.06</v>
       </c>
       <c r="M132" t="n">
         <v>0</v>
@@ -8150,13 +8150,13 @@
         <v>229</v>
       </c>
       <c r="D133" t="n">
-        <v>2.82</v>
+        <v>2.36</v>
       </c>
       <c r="E133" t="n">
-        <v>1.66</v>
+        <v>0.78</v>
       </c>
       <c r="F133" t="n">
-        <v>0.61</v>
+        <v>0.02</v>
       </c>
       <c r="G133" t="n">
         <v>0</v>
@@ -8197,16 +8197,16 @@
         <v>230</v>
       </c>
       <c r="D134" t="n">
-        <v>2.24</v>
+        <v>1.61</v>
       </c>
       <c r="E134" t="n">
-        <v>0.75</v>
+        <v>0.21</v>
       </c>
       <c r="F134" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="G134" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8215,16 +8215,16 @@
         <v>0</v>
       </c>
       <c r="J134" t="n">
-        <v>2.31</v>
+        <v>1.59</v>
       </c>
       <c r="K134" t="n">
-        <v>0.52</v>
+        <v>0.07</v>
       </c>
       <c r="L134" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="M134" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="N134" t="n">
         <v>0</v>
@@ -8291,16 +8291,16 @@
         <v>232</v>
       </c>
       <c r="D136" t="n">
-        <v>2.54</v>
+        <v>2.02</v>
       </c>
       <c r="E136" t="n">
-        <v>1.39</v>
+        <v>0.57</v>
       </c>
       <c r="F136" t="n">
-        <v>0.43</v>
+        <v>0.02</v>
       </c>
       <c r="G136" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8309,16 +8309,16 @@
         <v>0</v>
       </c>
       <c r="J136" t="n">
-        <v>1.53</v>
+        <v>1.02</v>
       </c>
       <c r="K136" t="n">
-        <v>0.54</v>
+        <v>0.23</v>
       </c>
       <c r="L136" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="M136" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N136" t="n">
         <v>0</v>
@@ -8338,16 +8338,16 @@
         <v>233</v>
       </c>
       <c r="D137" t="n">
-        <v>1.9</v>
+        <v>1.42</v>
       </c>
       <c r="E137" t="n">
-        <v>0.8</v>
+        <v>0.17</v>
       </c>
       <c r="F137" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="G137" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8385,16 +8385,16 @@
         <v>234</v>
       </c>
       <c r="D138" t="n">
-        <v>2.71</v>
+        <v>2.19</v>
       </c>
       <c r="E138" t="n">
-        <v>1.54</v>
+        <v>0.75</v>
       </c>
       <c r="F138" t="n">
-        <v>0.58</v>
+        <v>0.07</v>
       </c>
       <c r="G138" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8403,16 +8403,16 @@
         <v>0</v>
       </c>
       <c r="J138" t="n">
-        <v>2.72</v>
+        <v>2.19</v>
       </c>
       <c r="K138" t="n">
-        <v>1.57</v>
+        <v>1.05</v>
       </c>
       <c r="L138" t="n">
-        <v>0.76</v>
+        <v>0.17</v>
       </c>
       <c r="M138" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N138" t="n">
         <v>0</v>
@@ -8432,16 +8432,16 @@
         <v>235</v>
       </c>
       <c r="D139" t="n">
-        <v>1.73</v>
+        <v>1.24</v>
       </c>
       <c r="E139" t="n">
-        <v>0.46</v>
+        <v>0.1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="G139" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8450,16 +8450,16 @@
         <v>0</v>
       </c>
       <c r="J139" t="n">
-        <v>1.73</v>
+        <v>0.86</v>
       </c>
       <c r="K139" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="L139" t="n">
         <v>0</v>
       </c>
       <c r="M139" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="N139" t="n">
         <v>0</v>
@@ -8685,16 +8685,16 @@
         <v>0</v>
       </c>
       <c r="J144" t="n">
-        <v>1.84</v>
+        <v>1.44</v>
       </c>
       <c r="K144" t="n">
-        <v>0.79</v>
+        <v>0.27</v>
       </c>
       <c r="L144" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M144" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N144" t="n">
         <v>0</v>
@@ -8761,16 +8761,16 @@
         <v>244</v>
       </c>
       <c r="D146" t="n">
-        <v>1.28</v>
+        <v>0.94</v>
       </c>
       <c r="E146" t="n">
-        <v>0.32</v>
+        <v>0.01</v>
       </c>
       <c r="F146" t="n">
         <v>0</v>
       </c>
       <c r="G146" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -8779,16 +8779,16 @@
         <v>0</v>
       </c>
       <c r="J146" t="n">
-        <v>0.91</v>
+        <v>0.54</v>
       </c>
       <c r="K146" t="n">
-        <v>0.17</v>
+        <v>0.01</v>
       </c>
       <c r="L146" t="n">
         <v>0</v>
       </c>
       <c r="M146" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N146" t="n">
         <v>0</v>
@@ -8808,16 +8808,16 @@
         <v>245</v>
       </c>
       <c r="D147" t="n">
-        <v>0.59</v>
+        <v>0.23</v>
       </c>
       <c r="E147" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F147" t="n">
         <v>0</v>
       </c>
       <c r="G147" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -8826,7 +8826,7 @@
         <v>0</v>
       </c>
       <c r="J147" t="n">
-        <v>0.53</v>
+        <v>0.09</v>
       </c>
       <c r="K147" t="n">
         <v>0</v>
@@ -8835,7 +8835,7 @@
         <v>0</v>
       </c>
       <c r="M147" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N147" t="n">
         <v>0</v>
@@ -8855,16 +8855,16 @@
         <v>246</v>
       </c>
       <c r="D148" t="n">
-        <v>2.08</v>
+        <v>1.77</v>
       </c>
       <c r="E148" t="n">
-        <v>1.21</v>
+        <v>0.75</v>
       </c>
       <c r="F148" t="n">
-        <v>0.62</v>
+        <v>0.32</v>
       </c>
       <c r="G148" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -8873,16 +8873,16 @@
         <v>0</v>
       </c>
       <c r="J148" t="n">
-        <v>1.06</v>
+        <v>0.71</v>
       </c>
       <c r="K148" t="n">
-        <v>0.28</v>
+        <v>0.08</v>
       </c>
       <c r="L148" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="M148" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N148" t="n">
         <v>0</v>
@@ -8902,7 +8902,7 @@
         <v>247</v>
       </c>
       <c r="D149" t="n">
-        <v>0.92</v>
+        <v>0.46</v>
       </c>
       <c r="E149" t="n">
         <v>0</v>
@@ -8911,7 +8911,7 @@
         <v>0</v>
       </c>
       <c r="G149" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -8920,16 +8920,16 @@
         <v>0</v>
       </c>
       <c r="J149" t="n">
-        <v>1.22</v>
+        <v>0.85</v>
       </c>
       <c r="K149" t="n">
-        <v>0.29</v>
+        <v>0.04</v>
       </c>
       <c r="L149" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M149" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N149" t="n">
         <v>0</v>
@@ -8967,7 +8967,7 @@
         <v>0</v>
       </c>
       <c r="J150" t="n">
-        <v>0.37</v>
+        <v>0.01</v>
       </c>
       <c r="K150" t="n">
         <v>0</v>
@@ -9014,7 +9014,7 @@
         <v>0</v>
       </c>
       <c r="J151" t="n">
-        <v>0.57</v>
+        <v>0.19</v>
       </c>
       <c r="K151" t="n">
         <v>0</v>
@@ -9061,16 +9061,16 @@
         <v>0</v>
       </c>
       <c r="J152" t="n">
-        <v>1.14</v>
+        <v>0.78</v>
       </c>
       <c r="K152" t="n">
-        <v>0.26</v>
+        <v>0.02</v>
       </c>
       <c r="L152" t="n">
         <v>0</v>
       </c>
       <c r="M152" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N152" t="n">
         <v>0</v>
@@ -9137,16 +9137,16 @@
         <v>252</v>
       </c>
       <c r="D154" t="n">
-        <v>1.42</v>
+        <v>1.08</v>
       </c>
       <c r="E154" t="n">
-        <v>0.52</v>
+        <v>0.13</v>
       </c>
       <c r="F154" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="G154" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9155,16 +9155,16 @@
         <v>0</v>
       </c>
       <c r="J154" t="n">
-        <v>0.95</v>
+        <v>0.55</v>
       </c>
       <c r="K154" t="n">
-        <v>0.18</v>
+        <v>0.03</v>
       </c>
       <c r="L154" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="M154" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N154" t="n">
         <v>0</v>
@@ -9184,16 +9184,16 @@
         <v>253</v>
       </c>
       <c r="D155" t="n">
-        <v>2.01</v>
+        <v>1.66</v>
       </c>
       <c r="E155" t="n">
-        <v>1.22</v>
+        <v>0.67</v>
       </c>
       <c r="F155" t="n">
-        <v>0.57</v>
+        <v>0.14</v>
       </c>
       <c r="G155" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9202,16 +9202,16 @@
         <v>0</v>
       </c>
       <c r="J155" t="n">
-        <v>1.34</v>
+        <v>0.94</v>
       </c>
       <c r="K155" t="n">
-        <v>0.53</v>
+        <v>0.2</v>
       </c>
       <c r="L155" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="M155" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="N155" t="n">
         <v>0</v>
@@ -9372,16 +9372,16 @@
         <v>258</v>
       </c>
       <c r="D159" t="n">
-        <v>1.22</v>
+        <v>0.86</v>
       </c>
       <c r="E159" t="n">
-        <v>0.41</v>
+        <v>0.14</v>
       </c>
       <c r="F159" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="G159" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9390,7 +9390,7 @@
         <v>0</v>
       </c>
       <c r="J159" t="n">
-        <v>0.4</v>
+        <v>0.06</v>
       </c>
       <c r="K159" t="n">
         <v>0</v>
@@ -9399,7 +9399,7 @@
         <v>0</v>
       </c>
       <c r="M159" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N159" t="n">
         <v>0</v>
@@ -9466,16 +9466,16 @@
         <v>260</v>
       </c>
       <c r="D161" t="n">
-        <v>1.33</v>
+        <v>1.04</v>
       </c>
       <c r="E161" t="n">
-        <v>0.56</v>
+        <v>0.24</v>
       </c>
       <c r="F161" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G161" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -9484,16 +9484,16 @@
         <v>0</v>
       </c>
       <c r="J161" t="n">
-        <v>0.79</v>
+        <v>0.36</v>
       </c>
       <c r="K161" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L161" t="n">
         <v>0</v>
       </c>
       <c r="M161" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N161" t="n">
         <v>0</v>
@@ -9560,16 +9560,16 @@
         <v>130</v>
       </c>
       <c r="D163" t="n">
-        <v>2.57</v>
+        <v>2.14</v>
       </c>
       <c r="E163" t="n">
-        <v>1.63</v>
+        <v>0.91</v>
       </c>
       <c r="F163" t="n">
-        <v>0.8</v>
+        <v>0.17</v>
       </c>
       <c r="G163" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -9578,16 +9578,16 @@
         <v>0</v>
       </c>
       <c r="J163" t="n">
-        <v>1.51</v>
+        <v>0.99</v>
       </c>
       <c r="K163" t="n">
-        <v>0.55</v>
+        <v>0.16</v>
       </c>
       <c r="L163" t="n">
-        <v>0.12</v>
+        <v>0.01</v>
       </c>
       <c r="M163" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="N163" t="n">
         <v>0</v>
@@ -9607,13 +9607,13 @@
         <v>263</v>
       </c>
       <c r="D164" t="n">
-        <v>2.74</v>
+        <v>2.14</v>
       </c>
       <c r="E164" t="n">
-        <v>1.51</v>
+        <v>0.38</v>
       </c>
       <c r="F164" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="G164" t="n">
         <v>0</v>
@@ -9625,16 +9625,16 @@
         <v>0</v>
       </c>
       <c r="J164" t="n">
-        <v>1.62</v>
+        <v>0.96</v>
       </c>
       <c r="K164" t="n">
-        <v>0.53</v>
+        <v>0.02</v>
       </c>
       <c r="L164" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="M164" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="N164" t="n">
         <v>0</v>
@@ -9654,13 +9654,13 @@
         <v>264</v>
       </c>
       <c r="D165" t="n">
-        <v>2.23</v>
+        <v>1.76</v>
       </c>
       <c r="E165" t="n">
-        <v>1.08</v>
+        <v>0.24</v>
       </c>
       <c r="F165" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="G165" t="n">
         <v>0</v>
@@ -9672,16 +9672,16 @@
         <v>0</v>
       </c>
       <c r="J165" t="n">
-        <v>1.78</v>
+        <v>1.3</v>
       </c>
       <c r="K165" t="n">
-        <v>0.66</v>
+        <v>0.1</v>
       </c>
       <c r="L165" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="M165" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N165" t="n">
         <v>0</v>
@@ -9701,16 +9701,16 @@
         <v>265</v>
       </c>
       <c r="D166" t="n">
-        <v>1.85</v>
+        <v>1.48</v>
       </c>
       <c r="E166" t="n">
-        <v>0.99</v>
+        <v>0.41</v>
       </c>
       <c r="F166" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="G166" t="n">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -9719,16 +9719,16 @@
         <v>0</v>
       </c>
       <c r="J166" t="n">
-        <v>1.06</v>
+        <v>0.69</v>
       </c>
       <c r="K166" t="n">
-        <v>0.27</v>
+        <v>0.06</v>
       </c>
       <c r="L166" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="M166" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="N166" t="n">
         <v>0</v>
@@ -9748,13 +9748,13 @@
         <v>266</v>
       </c>
       <c r="D167" t="n">
-        <v>2.5</v>
+        <v>2.08</v>
       </c>
       <c r="E167" t="n">
-        <v>1.39</v>
+        <v>0.58</v>
       </c>
       <c r="F167" t="n">
-        <v>0.36</v>
+        <v>0.01</v>
       </c>
       <c r="G167" t="n">
         <v>0</v>
@@ -9766,16 +9766,16 @@
         <v>0</v>
       </c>
       <c r="J167" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="K167" t="n">
-        <v>0.68</v>
+        <v>0.21</v>
       </c>
       <c r="L167" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="M167" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="N167" t="n">
         <v>0</v>
@@ -9795,13 +9795,13 @@
         <v>267</v>
       </c>
       <c r="D168" t="n">
-        <v>2.29</v>
+        <v>1.85</v>
       </c>
       <c r="E168" t="n">
-        <v>1.27</v>
+        <v>0.45</v>
       </c>
       <c r="F168" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="G168" t="n">
         <v>0</v>
@@ -9813,16 +9813,16 @@
         <v>0</v>
       </c>
       <c r="J168" t="n">
-        <v>1.46</v>
+        <v>1.02</v>
       </c>
       <c r="K168" t="n">
-        <v>0.44</v>
+        <v>0.05</v>
       </c>
       <c r="L168" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="M168" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="N168" t="n">
         <v>0</v>
@@ -9842,16 +9842,16 @@
         <v>268</v>
       </c>
       <c r="D169" t="n">
-        <v>1.9</v>
+        <v>1.55</v>
       </c>
       <c r="E169" t="n">
-        <v>0.86</v>
+        <v>0.33</v>
       </c>
       <c r="F169" t="n">
-        <v>0.18</v>
+        <v>0.01</v>
       </c>
       <c r="G169" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -9860,16 +9860,16 @@
         <v>0</v>
       </c>
       <c r="J169" t="n">
-        <v>1.69</v>
+        <v>1.33</v>
       </c>
       <c r="K169" t="n">
-        <v>0.63</v>
+        <v>0.19</v>
       </c>
       <c r="L169" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="M169" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="N169" t="n">
         <v>0</v>
@@ -9889,10 +9889,10 @@
         <v>269</v>
       </c>
       <c r="D170" t="n">
-        <v>1.38</v>
+        <v>0.96</v>
       </c>
       <c r="E170" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="F170" t="n">
         <v>0</v>
@@ -9907,16 +9907,16 @@
         <v>0</v>
       </c>
       <c r="J170" t="n">
-        <v>1.11</v>
+        <v>0.68</v>
       </c>
       <c r="K170" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="L170" t="n">
         <v>0</v>
       </c>
       <c r="M170" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N170" t="n">
         <v>0</v>
@@ -9936,34 +9936,34 @@
         <v>270</v>
       </c>
       <c r="D171" t="n">
-        <v>1.44</v>
+        <v>1.09</v>
       </c>
       <c r="E171" t="n">
-        <v>0.59</v>
+        <v>0.21</v>
       </c>
       <c r="F171" t="n">
+        <v>0</v>
+      </c>
+      <c r="G171" t="n">
+        <v>0</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="K171" t="n">
         <v>0.08</v>
       </c>
-      <c r="G171" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="K171" t="n">
-        <v>0.27</v>
-      </c>
       <c r="L171" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="M171" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="N171" t="n">
         <v>0</v>
@@ -9983,13 +9983,13 @@
         <v>271</v>
       </c>
       <c r="D172" t="n">
-        <v>2.31</v>
+        <v>1.93</v>
       </c>
       <c r="E172" t="n">
-        <v>1.27</v>
+        <v>0.57</v>
       </c>
       <c r="F172" t="n">
-        <v>0.38</v>
+        <v>0.06</v>
       </c>
       <c r="G172" t="n">
         <v>0</v>
@@ -10001,16 +10001,16 @@
         <v>0</v>
       </c>
       <c r="J172" t="n">
-        <v>1.28</v>
+        <v>0.86</v>
       </c>
       <c r="K172" t="n">
-        <v>0.35</v>
+        <v>0.07</v>
       </c>
       <c r="L172" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="M172" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="N172" t="n">
         <v>0</v>
@@ -10048,16 +10048,16 @@
         <v>0</v>
       </c>
       <c r="J173" t="n">
-        <v>2.82</v>
+        <v>1.5</v>
       </c>
       <c r="K173" t="n">
-        <v>1.36</v>
+        <v>0.05</v>
       </c>
       <c r="L173" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="M173" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="N173" t="n">
         <v>0</v>
@@ -10095,7 +10095,7 @@
         <v>0</v>
       </c>
       <c r="J174" t="n">
-        <v>0.87</v>
+        <v>0.17</v>
       </c>
       <c r="K174" t="n">
         <v>0</v>
@@ -10142,16 +10142,16 @@
         <v>0</v>
       </c>
       <c r="J175" t="n">
-        <v>1.31</v>
+        <v>0.92</v>
       </c>
       <c r="K175" t="n">
-        <v>0.49</v>
+        <v>0.18</v>
       </c>
       <c r="L175" t="n">
-        <v>0.12</v>
+        <v>0.01</v>
       </c>
       <c r="M175" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="N175" t="n">
         <v>0</v>
@@ -10171,7 +10171,7 @@
         <v>275</v>
       </c>
       <c r="D176" t="n">
-        <v>0.76</v>
+        <v>0.31</v>
       </c>
       <c r="E176" t="n">
         <v>0</v>
@@ -10180,7 +10180,7 @@
         <v>0</v>
       </c>
       <c r="G176" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -10189,16 +10189,16 @@
         <v>0</v>
       </c>
       <c r="J176" t="n">
-        <v>1.29</v>
+        <v>0.89</v>
       </c>
       <c r="K176" t="n">
-        <v>0.28</v>
+        <v>0.03</v>
       </c>
       <c r="L176" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M176" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="N176" t="n">
         <v>0</v>
@@ -10236,16 +10236,16 @@
         <v>0</v>
       </c>
       <c r="J177" t="n">
-        <v>1.53</v>
+        <v>0.62</v>
       </c>
       <c r="K177" t="n">
-        <v>0.51</v>
+        <v>0</v>
       </c>
       <c r="L177" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M177" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="N177" t="n">
         <v>0</v>
@@ -10312,16 +10312,16 @@
         <v>278</v>
       </c>
       <c r="D179" t="n">
-        <v>2.21</v>
+        <v>1.56</v>
       </c>
       <c r="E179" t="n">
-        <v>1.08</v>
+        <v>0.25</v>
       </c>
       <c r="F179" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="G179" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -10330,16 +10330,16 @@
         <v>0</v>
       </c>
       <c r="J179" t="n">
-        <v>2.86</v>
+        <v>1.9</v>
       </c>
       <c r="K179" t="n">
-        <v>1.64</v>
+        <v>0.31</v>
       </c>
       <c r="L179" t="n">
-        <v>0.62</v>
+        <v>0</v>
       </c>
       <c r="M179" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="N179" t="n">
         <v>0</v>
@@ -10377,16 +10377,16 @@
         <v>0</v>
       </c>
       <c r="J180" t="n">
-        <v>1.34</v>
+        <v>0.59</v>
       </c>
       <c r="K180" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="L180" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="M180" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="N180" t="n">
         <v>0</v>
@@ -10424,16 +10424,16 @@
         <v>0</v>
       </c>
       <c r="J181" t="n">
-        <v>1.78</v>
+        <v>0.78</v>
       </c>
       <c r="K181" t="n">
-        <v>0.62</v>
+        <v>0</v>
       </c>
       <c r="L181" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="M181" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N181" t="n">
         <v>0</v>
@@ -10471,7 +10471,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="n">
-        <v>1.36</v>
+        <v>0.25</v>
       </c>
       <c r="K182" t="n">
         <v>0</v>
@@ -10480,7 +10480,7 @@
         <v>0</v>
       </c>
       <c r="M182" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N182" t="n">
         <v>0</v>
@@ -10594,34 +10594,34 @@
         <v>285</v>
       </c>
       <c r="D185" t="n">
-        <v>4.64</v>
+        <v>0.9</v>
       </c>
       <c r="E185" t="n">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="F185" t="n">
         <v>0</v>
       </c>
       <c r="G185" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H185" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
       <c r="J185" t="n">
-        <v>3.84</v>
+        <v>0.68</v>
       </c>
       <c r="K185" t="n">
-        <v>0.68</v>
+        <v>0</v>
       </c>
       <c r="L185" t="n">
         <v>0</v>
       </c>
       <c r="M185" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="N185" t="n">
         <v>0</v>
@@ -10668,7 +10668,7 @@
         <v>0</v>
       </c>
       <c r="M186" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="N186" t="n">
         <v>0</v>
@@ -10706,16 +10706,16 @@
         <v>0</v>
       </c>
       <c r="J187" t="n">
-        <v>1.37</v>
+        <v>0.62</v>
       </c>
       <c r="K187" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L187" t="n">
         <v>0</v>
       </c>
       <c r="M187" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="N187" t="n">
         <v>0</v>
@@ -10735,37 +10735,37 @@
         <v>288</v>
       </c>
       <c r="D188" t="n">
-        <v>4.6</v>
+        <v>1.1</v>
       </c>
       <c r="E188" t="n">
-        <v>1.49</v>
+        <v>0</v>
       </c>
       <c r="F188" t="n">
         <v>0</v>
       </c>
       <c r="G188" t="n">
-        <v>2.98</v>
+        <v>0</v>
       </c>
       <c r="H188" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
       <c r="J188" t="n">
-        <v>3.71</v>
+        <v>0.94</v>
       </c>
       <c r="K188" t="n">
-        <v>0.9</v>
+        <v>0.01</v>
       </c>
       <c r="L188" t="n">
         <v>0</v>
       </c>
       <c r="M188" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="N188" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="O188" t="n">
         <v>0</v>
@@ -10809,7 +10809,7 @@
         <v>0</v>
       </c>
       <c r="M189" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="N189" t="n">
         <v>0</v>
@@ -10847,7 +10847,7 @@
         <v>0</v>
       </c>
       <c r="J190" t="n">
-        <v>1.16</v>
+        <v>0.38</v>
       </c>
       <c r="K190" t="n">
         <v>0</v>
@@ -10856,7 +10856,7 @@
         <v>0</v>
       </c>
       <c r="M190" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="N190" t="n">
         <v>0</v>
@@ -10903,7 +10903,7 @@
         <v>0</v>
       </c>
       <c r="M191" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="N191" t="n">
         <v>0</v>
@@ -11176,16 +11176,16 @@
         <v>0</v>
       </c>
       <c r="J197" t="n">
-        <v>1.81</v>
+        <v>0.92</v>
       </c>
       <c r="K197" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="L197" t="n">
         <v>0</v>
       </c>
       <c r="M197" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N197" t="n">
         <v>0</v>
@@ -11214,7 +11214,7 @@
         <v>0</v>
       </c>
       <c r="G198" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -11223,7 +11223,7 @@
         <v>0</v>
       </c>
       <c r="J198" t="n">
-        <v>0.44</v>
+        <v>0.14</v>
       </c>
       <c r="K198" t="n">
         <v>0</v>
@@ -11317,16 +11317,16 @@
         <v>0</v>
       </c>
       <c r="J200" t="n">
-        <v>0.97</v>
+        <v>0.63</v>
       </c>
       <c r="K200" t="n">
-        <v>0.17</v>
+        <v>0.02</v>
       </c>
       <c r="L200" t="n">
         <v>0</v>
       </c>
       <c r="M200" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N200" t="n">
         <v>0</v>
@@ -11364,10 +11364,10 @@
         <v>0</v>
       </c>
       <c r="J201" t="n">
-        <v>1.55</v>
+        <v>0.78</v>
       </c>
       <c r="K201" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="L201" t="n">
         <v>0</v>
@@ -11411,10 +11411,10 @@
         <v>0</v>
       </c>
       <c r="J202" t="n">
-        <v>1.16</v>
+        <v>0.78</v>
       </c>
       <c r="K202" t="n">
-        <v>0.21</v>
+        <v>0.01</v>
       </c>
       <c r="L202" t="n">
         <v>0</v>
@@ -11505,7 +11505,7 @@
         <v>0</v>
       </c>
       <c r="J204" t="n">
-        <v>0.64</v>
+        <v>0.26</v>
       </c>
       <c r="K204" t="n">
         <v>0</v>
@@ -11514,7 +11514,7 @@
         <v>0</v>
       </c>
       <c r="M204" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N204" t="n">
         <v>0</v>
@@ -11552,7 +11552,7 @@
         <v>0</v>
       </c>
       <c r="J205" t="n">
-        <v>0.61</v>
+        <v>0.2</v>
       </c>
       <c r="K205" t="n">
         <v>0</v>
@@ -11561,7 +11561,7 @@
         <v>0</v>
       </c>
       <c r="M205" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N205" t="n">
         <v>0</v>
@@ -11599,16 +11599,16 @@
         <v>0</v>
       </c>
       <c r="J206" t="n">
-        <v>0.81</v>
+        <v>0.29</v>
       </c>
       <c r="K206" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="L206" t="n">
         <v>0</v>
       </c>
       <c r="M206" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N206" t="n">
         <v>0</v>
@@ -11693,7 +11693,7 @@
         <v>0</v>
       </c>
       <c r="J208" t="n">
-        <v>1.17</v>
+        <v>0.64</v>
       </c>
       <c r="K208" t="n">
         <v>0</v>
@@ -11702,7 +11702,7 @@
         <v>0</v>
       </c>
       <c r="M208" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N208" t="n">
         <v>0</v>
@@ -11722,13 +11722,13 @@
         <v>310</v>
       </c>
       <c r="D209" t="n">
-        <v>3.17</v>
+        <v>2.78</v>
       </c>
       <c r="E209" t="n">
-        <v>2.05</v>
+        <v>1.21</v>
       </c>
       <c r="F209" t="n">
-        <v>0.74</v>
+        <v>0</v>
       </c>
       <c r="G209" t="n">
         <v>0</v>
@@ -11740,16 +11740,16 @@
         <v>0</v>
       </c>
       <c r="J209" t="n">
-        <v>1.73</v>
+        <v>1.27</v>
       </c>
       <c r="K209" t="n">
-        <v>0.66</v>
+        <v>0.17</v>
       </c>
       <c r="L209" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="M209" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="N209" t="n">
         <v>0</v>
@@ -11787,13 +11787,13 @@
         <v>0</v>
       </c>
       <c r="J210" t="n">
-        <v>2.84</v>
+        <v>1.49</v>
       </c>
       <c r="K210" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="L210" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="M210" t="n">
         <v>0</v>
@@ -11816,34 +11816,34 @@
         <v>312</v>
       </c>
       <c r="D211" t="n">
-        <v>2.15</v>
+        <v>1.54</v>
       </c>
       <c r="E211" t="n">
-        <v>0.6</v>
+        <v>0.03</v>
       </c>
       <c r="F211" t="n">
         <v>0</v>
       </c>
       <c r="G211" t="n">
+        <v>0</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="K211" t="n">
         <v>0.01</v>
       </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="K211" t="n">
-        <v>0.46</v>
-      </c>
       <c r="L211" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="M211" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N211" t="n">
         <v>0</v>
@@ -11863,16 +11863,16 @@
         <v>313</v>
       </c>
       <c r="D212" t="n">
-        <v>2.99</v>
+        <v>1.97</v>
       </c>
       <c r="E212" t="n">
-        <v>1.4</v>
+        <v>0.09</v>
       </c>
       <c r="F212" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="G212" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -11881,19 +11881,19 @@
         <v>0</v>
       </c>
       <c r="J212" t="n">
-        <v>2.59</v>
+        <v>1.04</v>
       </c>
       <c r="K212" t="n">
-        <v>1.04</v>
+        <v>0.03</v>
       </c>
       <c r="L212" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="M212" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="N212" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="O212" t="n">
         <v>0</v>
@@ -11910,7 +11910,7 @@
         <v>130</v>
       </c>
       <c r="D213" t="n">
-        <v>0.54</v>
+        <v>0.15</v>
       </c>
       <c r="E213" t="n">
         <v>0</v>
@@ -11919,7 +11919,7 @@
         <v>0</v>
       </c>
       <c r="G213" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -11928,16 +11928,16 @@
         <v>0</v>
       </c>
       <c r="J213" t="n">
-        <v>1.87</v>
+        <v>0.8</v>
       </c>
       <c r="K213" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="L213" t="n">
         <v>0</v>
       </c>
       <c r="M213" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="N213" t="n">
         <v>0</v>
@@ -11957,34 +11957,34 @@
         <v>315</v>
       </c>
       <c r="D214" t="n">
-        <v>1.58</v>
+        <v>1.37</v>
       </c>
       <c r="E214" t="n">
-        <v>0.89</v>
+        <v>0.61</v>
       </c>
       <c r="F214" t="n">
-        <v>0.41</v>
+        <v>0.18</v>
       </c>
       <c r="G214" t="n">
+        <v>0</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="K214" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="L214" t="n">
         <v>0.07</v>
       </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
-      <c r="J214" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="K214" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="L214" t="n">
-        <v>0.2</v>
-      </c>
       <c r="M214" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="N214" t="n">
         <v>0</v>
@@ -12051,13 +12051,13 @@
         <v>317</v>
       </c>
       <c r="D216" t="n">
-        <v>1.25</v>
+        <v>0.94</v>
       </c>
       <c r="E216" t="n">
-        <v>0.33</v>
+        <v>0.07</v>
       </c>
       <c r="F216" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G216" t="n">
         <v>0</v>
@@ -12069,10 +12069,10 @@
         <v>0</v>
       </c>
       <c r="J216" t="n">
-        <v>1.52</v>
+        <v>0.86</v>
       </c>
       <c r="K216" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="L216" t="n">
         <v>0</v>
@@ -12098,16 +12098,16 @@
         <v>318</v>
       </c>
       <c r="D217" t="n">
-        <v>1.42</v>
+        <v>1.06</v>
       </c>
       <c r="E217" t="n">
-        <v>0.47</v>
+        <v>0.2</v>
       </c>
       <c r="F217" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="G217" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -12116,16 +12116,16 @@
         <v>0</v>
       </c>
       <c r="J217" t="n">
-        <v>1.62</v>
+        <v>1.25</v>
       </c>
       <c r="K217" t="n">
-        <v>0.69</v>
+        <v>0.38</v>
       </c>
       <c r="L217" t="n">
-        <v>0.21</v>
+        <v>0.03</v>
       </c>
       <c r="M217" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="N217" t="n">
         <v>0</v>
@@ -12163,13 +12163,13 @@
         <v>0</v>
       </c>
       <c r="J218" t="n">
-        <v>1.27</v>
+        <v>0.98</v>
       </c>
       <c r="K218" t="n">
-        <v>0.37</v>
+        <v>0.22</v>
       </c>
       <c r="L218" t="n">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="M218" t="n">
         <v>0</v>
@@ -12192,16 +12192,16 @@
         <v>320</v>
       </c>
       <c r="D219" t="n">
-        <v>1.19</v>
+        <v>0.88</v>
       </c>
       <c r="E219" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="F219" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="G219" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -12210,16 +12210,16 @@
         <v>0</v>
       </c>
       <c r="J219" t="n">
-        <v>0.99</v>
+        <v>0.64</v>
       </c>
       <c r="K219" t="n">
-        <v>0.25</v>
+        <v>0.13</v>
       </c>
       <c r="L219" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="M219" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="N219" t="n">
         <v>0</v>
@@ -12239,16 +12239,16 @@
         <v>321</v>
       </c>
       <c r="D220" t="n">
-        <v>1.12</v>
+        <v>0.77</v>
       </c>
       <c r="E220" t="n">
-        <v>0.28</v>
+        <v>0.09</v>
       </c>
       <c r="F220" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="G220" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -12257,16 +12257,16 @@
         <v>0</v>
       </c>
       <c r="J220" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="K220" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="L220" t="n">
         <v>0</v>
       </c>
       <c r="M220" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N220" t="n">
         <v>0</v>
@@ -12286,13 +12286,13 @@
         <v>322</v>
       </c>
       <c r="D221" t="n">
-        <v>2.08</v>
+        <v>1.81</v>
       </c>
       <c r="E221" t="n">
-        <v>1.43</v>
+        <v>0.84</v>
       </c>
       <c r="F221" t="n">
-        <v>0.66</v>
+        <v>0</v>
       </c>
       <c r="G221" t="n">
         <v>0</v>
@@ -12304,16 +12304,16 @@
         <v>0</v>
       </c>
       <c r="J221" t="n">
-        <v>0.76</v>
+        <v>0.44</v>
       </c>
       <c r="K221" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="L221" t="n">
         <v>0</v>
       </c>
       <c r="M221" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N221" t="n">
         <v>0</v>
@@ -12333,13 +12333,13 @@
         <v>323</v>
       </c>
       <c r="D222" t="n">
-        <v>1.88</v>
+        <v>1.58</v>
       </c>
       <c r="E222" t="n">
-        <v>1.07</v>
+        <v>0.42</v>
       </c>
       <c r="F222" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="G222" t="n">
         <v>0</v>
@@ -12351,16 +12351,16 @@
         <v>0</v>
       </c>
       <c r="J222" t="n">
-        <v>0.65</v>
+        <v>0.28</v>
       </c>
       <c r="K222" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="L222" t="n">
         <v>0</v>
       </c>
       <c r="M222" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="N222" t="n">
         <v>0</v>
@@ -12380,34 +12380,34 @@
         <v>324</v>
       </c>
       <c r="D223" t="n">
-        <v>1.25</v>
+        <v>0.95</v>
       </c>
       <c r="E223" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F223" t="n">
+        <v>0</v>
+      </c>
+      <c r="G223" t="n">
+        <v>0</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
+        <v>0</v>
+      </c>
+      <c r="J223" t="n">
         <v>0.4</v>
       </c>
-      <c r="F223" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="G223" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
-      <c r="J223" t="n">
-        <v>0.82</v>
-      </c>
       <c r="K223" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="L223" t="n">
         <v>0</v>
       </c>
       <c r="M223" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="N223" t="n">
         <v>0</v>
@@ -12436,7 +12436,7 @@
         <v>0</v>
       </c>
       <c r="G224" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -12445,16 +12445,16 @@
         <v>0</v>
       </c>
       <c r="J224" t="n">
-        <v>0.91</v>
+        <v>0.32</v>
       </c>
       <c r="K224" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L224" t="n">
         <v>0</v>
       </c>
       <c r="M224" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="N224" t="n">
         <v>0</v>
@@ -12492,16 +12492,16 @@
         <v>0</v>
       </c>
       <c r="J225" t="n">
-        <v>2.79</v>
+        <v>0.93</v>
       </c>
       <c r="K225" t="n">
-        <v>0.78</v>
+        <v>0</v>
       </c>
       <c r="L225" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N225" t="n">
         <v>0</v>
@@ -12718,17 +12718,17 @@
         <v>0</v>
       </c>
       <c r="G230" t="n">
+        <v>0</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="n">
+        <v>0</v>
+      </c>
+      <c r="J230" t="n">
         <v>0.13</v>
       </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
-      <c r="J230" t="n">
-        <v>0.89</v>
-      </c>
       <c r="K230" t="n">
         <v>0</v>
       </c>
@@ -12736,7 +12736,7 @@
         <v>0</v>
       </c>
       <c r="M230" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="N230" t="n">
         <v>0</v>
@@ -12783,7 +12783,7 @@
         <v>0</v>
       </c>
       <c r="M231" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N231" t="n">
         <v>0</v>
@@ -12821,16 +12821,16 @@
         <v>0</v>
       </c>
       <c r="J232" t="n">
-        <v>2.34</v>
+        <v>0.63</v>
       </c>
       <c r="K232" t="n">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="L232" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="M232" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N232" t="n">
         <v>0</v>
@@ -12868,16 +12868,16 @@
         <v>0</v>
       </c>
       <c r="J233" t="n">
-        <v>1.09</v>
+        <v>0.3</v>
       </c>
       <c r="K233" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="L233" t="n">
         <v>0</v>
       </c>
       <c r="M233" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="N233" t="n">
         <v>0</v>
@@ -12924,7 +12924,7 @@
         <v>0</v>
       </c>
       <c r="M234" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N234" t="n">
         <v>0</v>
@@ -12962,16 +12962,16 @@
         <v>0</v>
       </c>
       <c r="J235" t="n">
-        <v>3.2</v>
+        <v>0.97</v>
       </c>
       <c r="K235" t="n">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="L235" t="n">
         <v>0</v>
       </c>
       <c r="M235" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="N235" t="n">
         <v>0</v>
@@ -13038,16 +13038,16 @@
         <v>338</v>
       </c>
       <c r="D237" t="n">
-        <v>1.54</v>
+        <v>1.05</v>
       </c>
       <c r="E237" t="n">
-        <v>0.31</v>
+        <v>0.01</v>
       </c>
       <c r="F237" t="n">
         <v>0</v>
       </c>
       <c r="G237" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -13103,16 +13103,16 @@
         <v>0</v>
       </c>
       <c r="J238" t="n">
-        <v>1.44</v>
+        <v>0.95</v>
       </c>
       <c r="K238" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="L238" t="n">
         <v>0</v>
       </c>
       <c r="M238" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N238" t="n">
         <v>0</v>
@@ -13132,16 +13132,16 @@
         <v>340</v>
       </c>
       <c r="D239" t="n">
-        <v>1.57</v>
+        <v>1.04</v>
       </c>
       <c r="E239" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="F239" t="n">
         <v>0</v>
       </c>
       <c r="G239" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -13226,16 +13226,16 @@
         <v>342</v>
       </c>
       <c r="D241" t="n">
-        <v>1.76</v>
+        <v>1.25</v>
       </c>
       <c r="E241" t="n">
-        <v>0.55</v>
+        <v>0.08</v>
       </c>
       <c r="F241" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="G241" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -13244,7 +13244,7 @@
         <v>0</v>
       </c>
       <c r="J241" t="n">
-        <v>0.81</v>
+        <v>0.3</v>
       </c>
       <c r="K241" t="n">
         <v>0</v>
@@ -13253,7 +13253,7 @@
         <v>0</v>
       </c>
       <c r="M241" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N241" t="n">
         <v>0</v>
@@ -13320,16 +13320,16 @@
         <v>344</v>
       </c>
       <c r="D243" t="n">
-        <v>1.62</v>
+        <v>1.14</v>
       </c>
       <c r="E243" t="n">
-        <v>0.67</v>
+        <v>0.13</v>
       </c>
       <c r="F243" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="G243" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -13367,7 +13367,7 @@
         <v>345</v>
       </c>
       <c r="D244" t="n">
-        <v>0.58</v>
+        <v>0.13</v>
       </c>
       <c r="E244" t="n">
         <v>0</v>
@@ -13376,7 +13376,7 @@
         <v>0</v>
       </c>
       <c r="G244" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -13385,16 +13385,16 @@
         <v>0</v>
       </c>
       <c r="J244" t="n">
-        <v>0.85</v>
+        <v>0.43</v>
       </c>
       <c r="K244" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="L244" t="n">
         <v>0</v>
       </c>
       <c r="M244" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N244" t="n">
         <v>0</v>
@@ -13414,16 +13414,16 @@
         <v>346</v>
       </c>
       <c r="D245" t="n">
-        <v>1.77</v>
+        <v>1.3</v>
       </c>
       <c r="E245" t="n">
-        <v>0.73</v>
+        <v>0.16</v>
       </c>
       <c r="F245" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="G245" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -13432,7 +13432,7 @@
         <v>0</v>
       </c>
       <c r="J245" t="n">
-        <v>0.59</v>
+        <v>0.1</v>
       </c>
       <c r="K245" t="n">
         <v>0</v>
@@ -13479,16 +13479,16 @@
         <v>0</v>
       </c>
       <c r="J246" t="n">
-        <v>1.7</v>
+        <v>1.18</v>
       </c>
       <c r="K246" t="n">
-        <v>0.37</v>
+        <v>0.06</v>
       </c>
       <c r="L246" t="n">
         <v>0</v>
       </c>
       <c r="M246" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N246" t="n">
         <v>0</v>
@@ -13526,7 +13526,7 @@
         <v>0</v>
       </c>
       <c r="J247" t="n">
-        <v>0.84</v>
+        <v>0.28</v>
       </c>
       <c r="K247" t="n">
         <v>0</v>
@@ -13535,7 +13535,7 @@
         <v>0</v>
       </c>
       <c r="M247" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N247" t="n">
         <v>0</v>
@@ -13555,10 +13555,10 @@
         <v>349</v>
       </c>
       <c r="D248" t="n">
-        <v>1.19</v>
+        <v>0.69</v>
       </c>
       <c r="E248" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="F248" t="n">
         <v>0</v>
@@ -13620,16 +13620,16 @@
         <v>0</v>
       </c>
       <c r="J249" t="n">
-        <v>3.33</v>
+        <v>0.87</v>
       </c>
       <c r="K249" t="n">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="L249" t="n">
         <v>0</v>
       </c>
       <c r="M249" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="N249" t="n">
         <v>0</v>
@@ -13714,16 +13714,16 @@
         <v>0</v>
       </c>
       <c r="J251" t="n">
-        <v>3.25</v>
+        <v>0.88</v>
       </c>
       <c r="K251" t="n">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="L251" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="M251" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="N251" t="n">
         <v>0</v>
@@ -13808,19 +13808,19 @@
         <v>0</v>
       </c>
       <c r="J253" t="n">
-        <v>2.96</v>
+        <v>0.42</v>
       </c>
       <c r="K253" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="L253" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="M253" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="N253" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="O253" t="n">
         <v>0</v>
@@ -13837,10 +13837,10 @@
         <v>287</v>
       </c>
       <c r="D254" t="n">
-        <v>2.66</v>
+        <v>2.02</v>
       </c>
       <c r="E254" t="n">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="F254" t="n">
         <v>0</v>
@@ -13855,16 +13855,16 @@
         <v>0</v>
       </c>
       <c r="J254" t="n">
-        <v>1.68</v>
+        <v>0.97</v>
       </c>
       <c r="K254" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="L254" t="n">
         <v>0</v>
       </c>
       <c r="M254" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="N254" t="n">
         <v>0</v>
@@ -13902,16 +13902,16 @@
         <v>0</v>
       </c>
       <c r="J255" t="n">
-        <v>1.46</v>
+        <v>0.74</v>
       </c>
       <c r="K255" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="L255" t="n">
         <v>0</v>
       </c>
       <c r="M255" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N255" t="n">
         <v>0</v>
@@ -13931,13 +13931,13 @@
         <v>356</v>
       </c>
       <c r="D256" t="n">
-        <v>3.65</v>
+        <v>2.06</v>
       </c>
       <c r="E256" t="n">
-        <v>2.33</v>
+        <v>0</v>
       </c>
       <c r="F256" t="n">
-        <v>0.79</v>
+        <v>0</v>
       </c>
       <c r="G256" t="n">
         <v>0</v>
@@ -13949,16 +13949,16 @@
         <v>0</v>
       </c>
       <c r="J256" t="n">
-        <v>2.39</v>
+        <v>1.03</v>
       </c>
       <c r="K256" t="n">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="L256" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="M256" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N256" t="n">
         <v>0</v>
@@ -13996,16 +13996,16 @@
         <v>0</v>
       </c>
       <c r="J257" t="n">
-        <v>1.91</v>
+        <v>1.32</v>
       </c>
       <c r="K257" t="n">
-        <v>0.53</v>
+        <v>0</v>
       </c>
       <c r="L257" t="n">
         <v>0</v>
       </c>
       <c r="M257" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N257" t="n">
         <v>0</v>
